--- a/Sonia_IndiaLab_English_20200702.xlsx
+++ b/Sonia_IndiaLab_English_20200702.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -1489,49 +1489,6 @@
   </si>
   <si>
     <t>WIP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>V_cls_022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> table and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">くろがねや総括表.xls </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-missing</t>
-    </r>
   </si>
   <si>
     <t>Sabeena</t>
@@ -2266,6 +2223,31 @@
         <charset val="128"/>
       </rPr>
       <t>Import Document Need tocheck functionality</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Working fine</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.Import Document Need tocheck functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -2718,25 +2700,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3920,10 +3902,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="49"/>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -3932,8 +3914,8 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="49"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
@@ -3952,10 +3934,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="49"/>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -3964,8 +3946,8 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="49"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
@@ -4010,10 +3992,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="49"/>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4022,18 +4004,18 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="49"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="49"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -4042,8 +4024,8 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="49"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
@@ -4088,10 +4070,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="49"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -4100,8 +4082,8 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="49"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
@@ -4137,12 +4119,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4151,14 +4135,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4224,7 +4206,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="49"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -4237,7 +4219,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="49"/>
-      <c r="B4" s="56"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="49"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
@@ -4246,7 +4228,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="49"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -4259,7 +4241,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="49"/>
-      <c r="B6" s="56"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="49"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
@@ -5085,10 +5067,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="49"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="50" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -5098,8 +5080,8 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="49"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
@@ -5120,10 +5102,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="49"/>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="52" t="s">
+      <c r="C71" s="50" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -5133,8 +5115,8 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="49"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
@@ -5183,10 +5165,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="49"/>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="52" t="s">
+      <c r="C76" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -5196,8 +5178,8 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="49"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="52"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
@@ -5205,10 +5187,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="49"/>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="52" t="s">
+      <c r="C78" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -5218,8 +5200,8 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="49"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
@@ -5268,10 +5250,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="49"/>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -5281,8 +5263,8 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="49"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
@@ -5337,12 +5319,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -5359,6 +5335,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -22999,11 +22981,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23038,7 +23019,7 @@
         <v>300</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>320</v>
@@ -23061,7 +23042,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>316</v>
@@ -23076,10 +23057,10 @@
         <v>322</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="81">
@@ -23091,7 +23072,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>316</v>
@@ -23106,10 +23087,10 @@
         <v>322</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -23121,7 +23102,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>316</v>
@@ -23136,13 +23117,13 @@
         <v>322</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="49" t="s">
         <v>166</v>
       </c>
@@ -23157,16 +23138,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="49"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -23178,23 +23159,23 @@
         <v>302</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="49"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -23213,16 +23194,16 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="49"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -23241,16 +23222,16 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J8" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="49"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -23263,16 +23244,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="49"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -23291,16 +23272,16 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J10" s="33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="49"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -23312,23 +23293,23 @@
         <v>302</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="49"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -23340,23 +23321,23 @@
         <v>302</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J12" s="33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="49"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -23375,16 +23356,16 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="49"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -23403,16 +23384,16 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="49"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -23431,16 +23412,16 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="49"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -23459,16 +23440,16 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="49"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -23487,16 +23468,16 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J17" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="49"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -23507,16 +23488,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J18" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" hidden="1">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="49"/>
       <c r="B19" s="21" t="s">
         <v>196</v>
@@ -23525,26 +23506,26 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J19" s="33" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" hidden="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="49"/>
       <c r="B20" s="21" t="s">
         <v>197</v>
@@ -23553,26 +23534,26 @@
         <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="49"/>
       <c r="B21" s="21" t="s">
         <v>198</v>
@@ -23591,16 +23572,16 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="49"/>
       <c r="B22" s="21" t="s">
         <v>199</v>
@@ -23619,13 +23600,13 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J22" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -23655,10 +23636,10 @@
         <v>325</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" hidden="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="49"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -23667,26 +23648,26 @@
         <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E24" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J24" s="34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" hidden="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="49"/>
       <c r="B25" s="21" t="s">
         <v>202</v>
@@ -23695,26 +23676,26 @@
         <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J25" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" hidden="1">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="49"/>
       <c r="B26" s="21" t="s">
         <v>203</v>
@@ -23733,16 +23714,16 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="J26" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J26" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1">
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1">
       <c r="A27" s="49"/>
       <c r="B27" s="21" t="s">
         <v>204</v>
@@ -23751,26 +23732,26 @@
         <v>85</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E27" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J27" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="49"/>
       <c r="B28" s="21" t="s">
         <v>205</v>
@@ -23788,7 +23769,7 @@
         <v>100</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>323</v>
@@ -23797,10 +23778,10 @@
         <v>325</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="49"/>
       <c r="B29" s="21" t="s">
         <v>205</v>
@@ -23827,10 +23808,10 @@
         <v>325</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="49"/>
       <c r="B30" s="21" t="s">
         <v>205</v>
@@ -23848,7 +23829,7 @@
         <v>304</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>323</v>
@@ -23857,10 +23838,10 @@
         <v>325</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="49"/>
       <c r="B31" s="21" t="s">
         <v>205</v>
@@ -23878,7 +23859,7 @@
         <v>100</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>323</v>
@@ -23887,10 +23868,10 @@
         <v>325</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="49"/>
       <c r="B32" s="21" t="s">
         <v>205</v>
@@ -23908,7 +23889,7 @@
         <v>308</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>323</v>
@@ -23917,10 +23898,10 @@
         <v>325</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="49"/>
       <c r="B33" s="21" t="s">
         <v>205</v>
@@ -23938,7 +23919,7 @@
         <v>295</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>323</v>
@@ -23947,10 +23928,10 @@
         <v>325</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="49"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -23968,7 +23949,7 @@
         <v>304</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>323</v>
@@ -23977,10 +23958,10 @@
         <v>325</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="49"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -23998,7 +23979,7 @@
         <v>295</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>323</v>
@@ -24007,10 +23988,10 @@
         <v>325</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="49"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -24037,10 +24018,10 @@
         <v>325</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="49"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -24058,7 +24039,7 @@
         <v>304</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>323</v>
@@ -24067,10 +24048,10 @@
         <v>325</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="49"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -24088,7 +24069,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>323</v>
@@ -24097,10 +24078,10 @@
         <v>325</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="49"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -24118,7 +24099,7 @@
         <v>304</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>323</v>
@@ -24127,7 +24108,7 @@
         <v>325</v>
       </c>
       <c r="J39" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -24139,7 +24120,7 @@
         <v>142</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E40" s="35" t="s">
         <v>316</v>
@@ -24157,10 +24138,10 @@
         <v>325</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" hidden="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="49" t="s">
         <v>175</v>
       </c>
@@ -24179,10 +24160,10 @@
         <v>325</v>
       </c>
       <c r="J41" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="49"/>
       <c r="B42" s="21" t="s">
         <v>211</v>
@@ -24198,7 +24179,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="49"/>
       <c r="B43" s="21" t="s">
         <v>189</v>
@@ -24214,7 +24195,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="49"/>
       <c r="B44" s="21" t="s">
         <v>199</v>
@@ -24230,7 +24211,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="49"/>
       <c r="B45" s="21" t="s">
         <v>212</v>
@@ -24246,7 +24227,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" hidden="1">
+    <row r="46" spans="1:10">
       <c r="A46" s="49"/>
       <c r="B46" s="21" t="s">
         <v>202</v>
@@ -24262,7 +24243,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" hidden="1">
+    <row r="47" spans="1:10">
       <c r="A47" s="49"/>
       <c r="B47" s="21" t="s">
         <v>197</v>
@@ -24278,7 +24259,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" hidden="1">
+    <row r="48" spans="1:10">
       <c r="A48" s="49"/>
       <c r="B48" s="21" t="s">
         <v>204</v>
@@ -24294,7 +24275,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="49" t="s">
         <v>176</v>
       </c>
@@ -24323,10 +24304,10 @@
         <v>325</v>
       </c>
       <c r="J49" s="33" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="49"/>
       <c r="B50" s="21" t="s">
         <v>216</v>
@@ -24353,10 +24334,10 @@
         <v>325</v>
       </c>
       <c r="J50" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="49" t="s">
         <v>168</v>
       </c>
@@ -24385,10 +24366,10 @@
         <v>325</v>
       </c>
       <c r="J51" s="33" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="49"/>
       <c r="B52" s="21" t="s">
         <v>215</v>
@@ -24412,13 +24393,13 @@
         <v>323</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="121.5" hidden="1">
+    </row>
+    <row r="53" spans="1:10" ht="121.5">
       <c r="A53" s="49" t="s">
         <v>169</v>
       </c>
@@ -24429,16 +24410,16 @@
         <v>29</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>321</v>
@@ -24447,10 +24428,10 @@
         <v>326</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="49"/>
       <c r="B54" s="21" t="s">
         <v>217</v>
@@ -24459,28 +24440,28 @@
         <v>30</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J54" s="33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="49"/>
       <c r="B55" s="21" t="s">
         <v>220</v>
@@ -24489,28 +24470,28 @@
         <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="49"/>
       <c r="B56" s="21" t="s">
         <v>219</v>
@@ -24519,28 +24500,28 @@
         <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J56" s="33" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="49"/>
       <c r="B57" s="21" t="s">
         <v>215</v>
@@ -24549,25 +24530,25 @@
         <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>321</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J57" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="27">
@@ -24590,7 +24571,7 @@
         <v>106</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>322</v>
@@ -24598,8 +24579,8 @@
       <c r="I58" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="J58" s="21" t="s">
-        <v>327</v>
+      <c r="J58" s="48" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -24629,7 +24610,7 @@
         <v>325</v>
       </c>
       <c r="J59" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -24659,7 +24640,7 @@
         <v>325</v>
       </c>
       <c r="J60" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -24689,7 +24670,7 @@
         <v>325</v>
       </c>
       <c r="J61" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -24721,7 +24702,7 @@
         <v>325</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -24742,7 +24723,7 @@
         <v>104</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>322</v>
@@ -24751,7 +24732,7 @@
         <v>325</v>
       </c>
       <c r="J63" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="148.5">
@@ -24772,7 +24753,7 @@
         <v>104</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>322</v>
@@ -24781,16 +24762,12 @@
         <v>325</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J64">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Bharathi"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="7"/>
   </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A58:A61"/>
@@ -24931,7 +24908,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="53" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -24942,7 +24919,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -25002,7 +24979,7 @@
         <v>205</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -25177,8 +25154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K96" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView topLeftCell="K66" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25207,19 +25184,19 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
       <c r="D1" s="64"/>
       <c r="E1" s="65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
       <c r="H1" s="67"/>
       <c r="I1" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J1" s="61"/>
       <c r="K1" s="61"/>
@@ -25239,61 +25216,61 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="37" t="s">
         <v>353</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>354</v>
       </c>
       <c r="D2" s="37" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="G2" s="38" t="s">
         <v>353</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>354</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>280</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>353</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>354</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>280</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="O2" s="40" t="s">
         <v>353</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>354</v>
       </c>
       <c r="P2" s="40" t="s">
         <v>280</v>
       </c>
       <c r="Q2" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="R2" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>353</v>
-      </c>
-      <c r="S2" s="41" t="s">
-        <v>354</v>
       </c>
       <c r="T2" s="41" t="s">
         <v>280</v>
@@ -25301,21 +25278,21 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -25323,43 +25300,43 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>355</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>356</v>
       </c>
       <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -25367,43 +25344,43 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R4" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -25411,43 +25388,43 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T5" s="36"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -25455,43 +25432,43 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>295</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T6" s="36"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -25499,43 +25476,43 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R7" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S7" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T7" s="36"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -25543,43 +25520,43 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R8" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S8" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T8" s="36"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -25587,43 +25564,43 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="S9" s="36" t="s">
         <v>355</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>347</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>356</v>
       </c>
       <c r="T9" s="36"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -25631,43 +25608,43 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R10" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S10" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T10" s="36"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -25675,43 +25652,43 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R11" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S11" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T11" s="36"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -25719,43 +25696,43 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R12" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S12" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T12" s="36"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -25763,43 +25740,43 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T13" s="36"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -25807,43 +25784,43 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R14" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S14" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T14" s="36"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -25851,43 +25828,43 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R15" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S15" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T15" s="36"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -25895,43 +25872,43 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R16" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T16" s="36"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -25939,43 +25916,43 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S17" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="T17" s="36"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -25983,43 +25960,43 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S18" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="T18" s="36"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -26027,43 +26004,43 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R19" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T19" s="36"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -26071,43 +26048,43 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R20" s="36" t="s">
         <v>101</v>
       </c>
       <c r="S20" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T20" s="36"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -26115,43 +26092,43 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R21" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T21" s="36"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -26159,43 +26136,43 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R22" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T22" s="36"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -26203,35 +26180,35 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T23" s="36"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -26243,35 +26220,35 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R24" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S24" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T24" s="36"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -26283,35 +26260,35 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R25" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S25" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T25" s="36"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -26323,35 +26300,35 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R26" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S26" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T26" s="36"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -26363,23 +26340,23 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R27" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S27" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T27" s="36"/>
     </row>
@@ -26397,23 +26374,23 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R28" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S28" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T28" s="36"/>
     </row>
@@ -26431,7 +26408,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>99</v>
@@ -26439,13 +26416,13 @@
       <c r="O29" s="34"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R29" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S29" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T29" s="36"/>
     </row>
@@ -26463,23 +26440,23 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R30" s="36" t="s">
         <v>100</v>
       </c>
       <c r="S30" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T30" s="36"/>
     </row>
@@ -26497,23 +26474,23 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R31" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S31" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="T31" s="36"/>
     </row>
@@ -26531,23 +26508,23 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R32" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S32" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="T32" s="36"/>
     </row>
@@ -26565,25 +26542,25 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q33" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R33" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S33" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="T33" s="36"/>
     </row>
@@ -26601,25 +26578,25 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q34" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R34" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S34" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T34" s="36"/>
     </row>
@@ -26637,23 +26614,23 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R35" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S35" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T35" s="36"/>
     </row>
@@ -26671,23 +26648,23 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R36" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S36" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T36" s="36"/>
     </row>
@@ -26705,23 +26682,23 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S37" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T37" s="36"/>
     </row>
@@ -26739,23 +26716,23 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R38" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S38" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="T38" s="36"/>
     </row>
@@ -26773,23 +26750,23 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R39" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S39" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T39" s="36"/>
     </row>
@@ -26807,23 +26784,23 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>295</v>
       </c>
       <c r="S40" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T40" s="36"/>
     </row>
@@ -26841,23 +26818,23 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S41" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="T41" s="36"/>
     </row>
@@ -26875,23 +26852,23 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R42" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S42" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="T42" s="36"/>
     </row>
@@ -26909,23 +26886,23 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R43" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S43" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T43" s="36"/>
     </row>
@@ -26943,23 +26920,23 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R44" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S44" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="T44" s="36"/>
     </row>
@@ -26977,23 +26954,23 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R45" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S45" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T45" s="36"/>
     </row>
@@ -27011,23 +26988,23 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R46" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S46" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T46" s="36"/>
     </row>
@@ -27045,23 +27022,23 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R47" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S47" s="36" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T47" s="36"/>
     </row>
@@ -27079,23 +27056,23 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R48" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S48" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="T48" s="36"/>
     </row>
@@ -27113,23 +27090,23 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R49" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S49" s="36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T49" s="36"/>
     </row>
@@ -27147,23 +27124,23 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R50" s="36" t="s">
         <v>103</v>
       </c>
       <c r="S50" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="T50" s="36"/>
     </row>
@@ -27181,13 +27158,13 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -27209,13 +27186,13 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O52" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -27237,16 +27214,16 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -27267,16 +27244,16 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -27297,16 +27274,16 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -27327,16 +27304,16 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -27357,16 +27334,16 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -27387,16 +27364,16 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -27417,16 +27394,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O59" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -27447,16 +27424,16 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O60" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -27477,16 +27454,16 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -27507,16 +27484,16 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -27537,16 +27514,16 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>104</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -27567,13 +27544,13 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -27595,13 +27572,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -27623,13 +27600,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -27651,13 +27628,13 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -27679,13 +27656,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -27707,13 +27684,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -27735,13 +27712,13 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -27763,13 +27740,13 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -27791,13 +27768,13 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -27819,13 +27796,13 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -27847,13 +27824,13 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -27875,13 +27852,13 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -27903,13 +27880,13 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -27931,13 +27908,13 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>106</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -27959,13 +27936,13 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -27987,13 +27964,13 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -28015,13 +27992,13 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -28043,13 +28020,13 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -28071,13 +28048,13 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -28099,13 +28076,13 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -28127,13 +28104,13 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -28155,13 +28132,13 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -28183,13 +28160,13 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="O86" s="34" t="s">
-        <v>437</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -28211,13 +28188,13 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -28239,13 +28216,13 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -28267,13 +28244,13 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -28295,13 +28272,13 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -28323,13 +28300,13 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -28351,13 +28328,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -28379,13 +28356,13 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -28407,13 +28384,13 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -28435,13 +28412,13 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -28463,13 +28440,13 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -28491,13 +28468,13 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -28519,13 +28496,13 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -28547,13 +28524,13 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -28575,13 +28552,13 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -28603,13 +28580,13 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -28631,13 +28608,13 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -28659,13 +28636,13 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>318</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -28687,13 +28664,13 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -28715,13 +28692,13 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -28743,13 +28720,13 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -28771,13 +28748,13 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -28799,13 +28776,13 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -28827,13 +28804,13 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -28855,13 +28832,13 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -28883,13 +28860,13 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -28911,13 +28888,13 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -28939,13 +28916,13 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>304</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
